--- a/Projects/Dosed Yolk hormones/Yolk CORT/delicata_yolk_hormone.xlsx
+++ b/Projects/Dosed Yolk hormones/Yolk CORT/delicata_yolk_hormone.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U1115575\Documents\lampro_cort_temp\Yolk hormones\Yolk CORT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U1115575\Documents\lampro_cort_temp\Projects\Dosed Yolk hormones\Yolk CORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AA2CB8-C0B5-4EBA-B641-6259B2A6765A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAC910D-EC66-4EBF-9A12-F00A43760DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1F4C1761-69C6-4866-96E8-673082E2F564}"/>
+    <workbookView xWindow="28680" yWindow="-1230" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1F4C1761-69C6-4866-96E8-673082E2F564}"/>
   </bookViews>
   <sheets>
     <sheet name="All hormone treatments" sheetId="1" r:id="rId1"/>
-    <sheet name="thryoid eggs assay second" sheetId="2" r:id="rId2"/>
-    <sheet name="CORT treament" sheetId="3" r:id="rId3"/>
-    <sheet name="Extraction efficiency" sheetId="6" r:id="rId4"/>
-    <sheet name="CORT Plate data for publication" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="thryoid eggs assay second" sheetId="2" r:id="rId3"/>
+    <sheet name="CORT treament" sheetId="3" r:id="rId4"/>
+    <sheet name="Extraction efficiency" sheetId="6" r:id="rId5"/>
+    <sheet name="CORT Plate data for publication" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,6 +40,42 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={47483FA9-9E14-4734-A95E-AD3299D8EB47}</author>
+    <author>tc={22046897-77A8-4C1F-A04D-943C96758B42}</author>
+    <author>tc={87AAD346-68A4-465B-9087-668966E9E2BE}</author>
+  </authors>
+  <commentList>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{47483FA9-9E14-4734-A95E-AD3299D8EB47}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Value from assay</t>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="1" shapeId="0" xr:uid="{22046897-77A8-4C1F-A04D-943C96758B42}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The amount the sample was diluted before the assay</t>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="2" shapeId="0" xr:uid="{87AAD346-68A4-465B-9087-668966E9E2BE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    mass of egg yolk</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={5E86FCB1-A097-4937-BB8D-4778565DB161}</author>
@@ -74,7 +111,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={8F73C118-8D89-4AA1-8C0C-D7FEE1E74F98}</author>
@@ -120,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="502">
   <si>
     <t>dissection_id</t>
   </si>
@@ -1623,6 +1660,9 @@
   </si>
   <si>
     <t>T1</t>
+  </si>
+  <si>
+    <t>final_T4(pg/mg)</t>
   </si>
 </sst>
 </file>
@@ -1633,7 +1673,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1647,8 +1687,15 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1676,6 +1723,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1730,7 +1783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1815,6 +1868,67 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2137,6 +2251,20 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="P1" dT="2022-09-05T06:10:02.79" personId="{CEEBB0EB-627E-4798-97F6-F2C91AB19EAE}" id="{47483FA9-9E14-4734-A95E-AD3299D8EB47}">
+    <text>Value from assay</text>
+  </threadedComment>
+  <threadedComment ref="Q1" dT="2022-09-05T06:10:49.67" personId="{CEEBB0EB-627E-4798-97F6-F2C91AB19EAE}" id="{22046897-77A8-4C1F-A04D-943C96758B42}">
+    <text>The amount the sample was diluted before the assay</text>
+  </threadedComment>
+  <threadedComment ref="R1" dT="2022-09-06T03:56:20.60" personId="{CEEBB0EB-627E-4798-97F6-F2C91AB19EAE}" id="{87AAD346-68A4-465B-9087-668966E9E2BE}">
+    <text>mass of egg yolk</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="N1" dT="2022-09-05T06:10:02.79" personId="{CEEBB0EB-627E-4798-97F6-F2C91AB19EAE}" id="{5E86FCB1-A097-4937-BB8D-4778565DB161}">
     <text>Value from assay</text>
   </threadedComment>
@@ -2149,7 +2277,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="O1" dT="2022-09-05T06:10:02.79" personId="{CEEBB0EB-627E-4798-97F6-F2C91AB19EAE}" id="{8F73C118-8D89-4AA1-8C0C-D7FEE1E74F98}">
     <text>Value from assay</text>
@@ -2171,9 +2299,9 @@
   <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="L179" sqref="L179"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7928,11 +8056,3670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4C2643-4827-41CF-8B8D-0048AE88E850}">
+  <dimension ref="A1:U99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="15" max="15" width="8.7265625" style="18"/>
+    <col min="16" max="16" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>475</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="1">
+        <v>158</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2" s="4">
+        <v>44621</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7.17</v>
+      </c>
+      <c r="I2" s="2">
+        <v>6.09</v>
+      </c>
+      <c r="J2" s="3">
+        <v>168.42</v>
+      </c>
+      <c r="K2" s="3">
+        <v>33.298000000000002</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="1">
+        <v>159</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3" s="4">
+        <v>44621</v>
+      </c>
+      <c r="H3" s="2">
+        <v>7.43</v>
+      </c>
+      <c r="I3" s="2">
+        <v>6.19</v>
+      </c>
+      <c r="J3" s="3">
+        <v>173.02</v>
+      </c>
+      <c r="K3" s="3">
+        <v>49.668999999999997</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3</v>
+      </c>
+      <c r="O3" s="58">
+        <v>6.7</v>
+      </c>
+      <c r="P3" s="58">
+        <v>1.448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="1">
+        <v>160</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G4" s="4">
+        <v>44621</v>
+      </c>
+      <c r="H4" s="2">
+        <v>9.16</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>207.21100000000001</v>
+      </c>
+      <c r="K4" s="3">
+        <v>56.41</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="O4" s="17"/>
+    </row>
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="1">
+        <v>161</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G5" s="4">
+        <v>44621</v>
+      </c>
+      <c r="H5" s="2">
+        <v>9.15</v>
+      </c>
+      <c r="I5" s="2">
+        <v>6.22</v>
+      </c>
+      <c r="J5" s="3">
+        <v>193.44800000000001</v>
+      </c>
+      <c r="K5" s="3">
+        <v>58.021999999999998</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O5" s="17"/>
+    </row>
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="1">
+        <v>162</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G6" s="4">
+        <v>44621</v>
+      </c>
+      <c r="H6" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="I6" s="2">
+        <v>6.31</v>
+      </c>
+      <c r="J6" s="3">
+        <v>202.02600000000001</v>
+      </c>
+      <c r="K6" s="3">
+        <v>69.593000000000004</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3</v>
+      </c>
+      <c r="O6" s="57">
+        <v>10.5</v>
+      </c>
+      <c r="P6" s="57">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="1">
+        <v>163</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G7" s="4">
+        <v>44621</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7.44</v>
+      </c>
+      <c r="I7" s="2">
+        <v>6.22</v>
+      </c>
+      <c r="J7" s="3">
+        <v>159.833</v>
+      </c>
+      <c r="K7" s="3">
+        <v>37.497</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O7" s="17"/>
+    </row>
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="1">
+        <v>164</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G8" s="4">
+        <v>44621</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5.96</v>
+      </c>
+      <c r="J8" s="3">
+        <v>158.57499999999999</v>
+      </c>
+      <c r="K8" s="3">
+        <v>27.262</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="O8" s="17"/>
+    </row>
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" s="1">
+        <v>165</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G9" s="4">
+        <v>44621</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7.82</v>
+      </c>
+      <c r="I9" s="2">
+        <v>6.05</v>
+      </c>
+      <c r="J9" s="3">
+        <v>161.58099999999999</v>
+      </c>
+      <c r="K9" s="3">
+        <v>41.863</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="1">
+        <v>166</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G10" s="4">
+        <v>44623</v>
+      </c>
+      <c r="H10" s="2">
+        <v>9.75</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5.81</v>
+      </c>
+      <c r="J10" s="3">
+        <v>219.684</v>
+      </c>
+      <c r="K10" s="3">
+        <v>77.710999999999999</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="N10" s="1">
+        <v>3</v>
+      </c>
+      <c r="O10" s="57">
+        <v>47</v>
+      </c>
+      <c r="P10" s="57">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="1">
+        <v>167</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11" s="4">
+        <v>44623</v>
+      </c>
+      <c r="H11" s="2">
+        <v>9.39</v>
+      </c>
+      <c r="I11" s="2">
+        <v>6.14</v>
+      </c>
+      <c r="J11" s="3">
+        <v>224.76900000000001</v>
+      </c>
+      <c r="K11" s="3">
+        <v>94.673000000000002</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="1">
+        <v>168</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G12" s="4">
+        <v>44623</v>
+      </c>
+      <c r="H12" s="2">
+        <v>9.76</v>
+      </c>
+      <c r="I12" s="2">
+        <v>6.28</v>
+      </c>
+      <c r="J12" s="3">
+        <v>229.82</v>
+      </c>
+      <c r="K12" s="3">
+        <v>52.942999999999998</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="O12" s="17"/>
+    </row>
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" s="1">
+        <v>169</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G13" s="4">
+        <v>44623</v>
+      </c>
+      <c r="H13" s="2">
+        <v>9.66</v>
+      </c>
+      <c r="I13" s="2">
+        <v>6.52</v>
+      </c>
+      <c r="J13" s="3">
+        <v>229.78299999999999</v>
+      </c>
+      <c r="K13" s="3">
+        <v>90.972999999999999</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="O13" s="17"/>
+    </row>
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C14" s="1">
+        <v>170</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G14" s="4">
+        <v>44625</v>
+      </c>
+      <c r="H14" s="2">
+        <v>7.59</v>
+      </c>
+      <c r="I14" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="J14" s="3">
+        <v>162.04</v>
+      </c>
+      <c r="K14" s="3">
+        <v>49.612000000000002</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N14" s="1">
+        <v>3</v>
+      </c>
+      <c r="O14" s="17">
+        <v>24</v>
+      </c>
+      <c r="P14" s="58">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="1">
+        <v>171</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G15" s="4">
+        <v>44625</v>
+      </c>
+      <c r="H15" s="2">
+        <v>7.46</v>
+      </c>
+      <c r="I15" s="2">
+        <v>5.84</v>
+      </c>
+      <c r="J15" s="3">
+        <v>158.53200000000001</v>
+      </c>
+      <c r="K15" s="3">
+        <v>46.024000000000001</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="O15" s="17"/>
+    </row>
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" s="1">
+        <v>172</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G16" s="4">
+        <v>44625</v>
+      </c>
+      <c r="H16" s="2">
+        <v>8.24</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5.88</v>
+      </c>
+      <c r="J16" s="3">
+        <v>163.65100000000001</v>
+      </c>
+      <c r="K16" s="3">
+        <v>30.634</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="O16" s="17"/>
+    </row>
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17" s="1">
+        <v>173</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G17" s="4">
+        <v>44625</v>
+      </c>
+      <c r="H17" s="2">
+        <v>7.75</v>
+      </c>
+      <c r="I17" s="2">
+        <v>6.03</v>
+      </c>
+      <c r="J17" s="3">
+        <v>154.571</v>
+      </c>
+      <c r="K17" s="3">
+        <v>50.372</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="O17" s="17"/>
+    </row>
+    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" s="1">
+        <v>174</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G18" s="4">
+        <v>44625</v>
+      </c>
+      <c r="H18" s="2">
+        <v>8.15</v>
+      </c>
+      <c r="I18" s="2">
+        <v>5.51</v>
+      </c>
+      <c r="J18" s="3">
+        <v>161.876</v>
+      </c>
+      <c r="K18" s="3">
+        <v>37.798000000000002</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="O18" s="17"/>
+    </row>
+    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19" s="1">
+        <v>175</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G19" s="4">
+        <v>44625</v>
+      </c>
+      <c r="H19" s="2">
+        <v>7.89</v>
+      </c>
+      <c r="I19" s="2">
+        <v>6.09</v>
+      </c>
+      <c r="J19" s="3">
+        <v>165.08600000000001</v>
+      </c>
+      <c r="K19" s="3">
+        <v>11.766</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O19" s="17"/>
+    </row>
+    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C20" s="1">
+        <v>176</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G20" s="4">
+        <v>44625</v>
+      </c>
+      <c r="H20" s="2">
+        <v>7.18</v>
+      </c>
+      <c r="I20" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="J20" s="3">
+        <v>153.06100000000001</v>
+      </c>
+      <c r="K20" s="3">
+        <v>42.500999999999998</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N20" s="1">
+        <v>3</v>
+      </c>
+      <c r="O20" s="58">
+        <v>6.4</v>
+      </c>
+      <c r="P20" s="58">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C21" s="1">
+        <v>177</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G21" s="4">
+        <v>44625</v>
+      </c>
+      <c r="H21" s="2">
+        <v>8.36</v>
+      </c>
+      <c r="I21" s="2">
+        <v>5.72</v>
+      </c>
+      <c r="J21" s="3">
+        <v>160.53800000000001</v>
+      </c>
+      <c r="K21" s="3">
+        <v>29.311</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O21" s="17"/>
+    </row>
+    <row r="22" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C22" s="1">
+        <v>178</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G22" s="4">
+        <v>44625</v>
+      </c>
+      <c r="H22" s="2">
+        <v>7.74</v>
+      </c>
+      <c r="I22" s="2">
+        <v>6.01</v>
+      </c>
+      <c r="J22" s="3">
+        <v>144.13900000000001</v>
+      </c>
+      <c r="K22" s="3">
+        <v>47.95</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N22" s="1">
+        <v>3</v>
+      </c>
+      <c r="O22" s="58">
+        <v>0.6</v>
+      </c>
+      <c r="P22" s="58">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C23" s="1">
+        <v>179</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G23" s="4">
+        <v>44625</v>
+      </c>
+      <c r="H23" s="2">
+        <v>8.23</v>
+      </c>
+      <c r="I23" s="2">
+        <v>5.94</v>
+      </c>
+      <c r="J23" s="3">
+        <v>160.81700000000001</v>
+      </c>
+      <c r="K23" s="3">
+        <v>51.106000000000002</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N23" s="1">
+        <v>3</v>
+      </c>
+      <c r="O23" s="17"/>
+      <c r="P23" s="58">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C24" s="1">
+        <v>180</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G24" s="4">
+        <v>44625</v>
+      </c>
+      <c r="H24" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I24" s="2">
+        <v>6.18</v>
+      </c>
+      <c r="J24" s="3">
+        <v>181.47499999999999</v>
+      </c>
+      <c r="K24" s="3">
+        <v>37.274999999999999</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="O24" s="17"/>
+    </row>
+    <row r="25" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C25" s="1">
+        <v>181</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G25" s="4">
+        <v>44625</v>
+      </c>
+      <c r="H25" s="2">
+        <v>7.98</v>
+      </c>
+      <c r="I25" s="2">
+        <v>6.67</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3">
+        <v>50.935000000000002</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N25" s="1">
+        <v>3</v>
+      </c>
+      <c r="O25" s="58">
+        <v>56.5</v>
+      </c>
+      <c r="P25" s="58">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C26" s="1">
+        <v>182</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G26" s="4">
+        <v>44625</v>
+      </c>
+      <c r="H26" s="2">
+        <v>7.86</v>
+      </c>
+      <c r="I26" s="2">
+        <v>6.22</v>
+      </c>
+      <c r="J26" s="3">
+        <v>177.72</v>
+      </c>
+      <c r="K26" s="3">
+        <v>55.401000000000003</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="O26" s="17"/>
+    </row>
+    <row r="27" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C27" s="1">
+        <v>183</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G27" s="4">
+        <v>44625</v>
+      </c>
+      <c r="H27" s="2">
+        <v>7.68</v>
+      </c>
+      <c r="I27" s="2">
+        <v>6.17</v>
+      </c>
+      <c r="J27" s="3">
+        <v>165.839</v>
+      </c>
+      <c r="K27" s="3">
+        <v>35.223999999999997</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N27" s="1">
+        <v>3</v>
+      </c>
+      <c r="O27" s="57">
+        <v>80.5</v>
+      </c>
+      <c r="P27" s="57">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C28" s="1">
+        <v>184</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G28" s="4">
+        <v>44625</v>
+      </c>
+      <c r="H28" s="2">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="I28" s="2">
+        <v>5.83</v>
+      </c>
+      <c r="J28" s="3">
+        <v>165.68799999999999</v>
+      </c>
+      <c r="K28" s="3">
+        <v>39.204999999999998</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="O28" s="17"/>
+    </row>
+    <row r="29" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C29" s="1">
+        <v>185</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G29" s="4">
+        <v>44625</v>
+      </c>
+      <c r="H29" s="2">
+        <v>8.56</v>
+      </c>
+      <c r="I29" s="2">
+        <v>6.23</v>
+      </c>
+      <c r="J29" s="3">
+        <v>186.66800000000001</v>
+      </c>
+      <c r="K29" s="3">
+        <v>55.884999999999998</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N29" s="1">
+        <v>3</v>
+      </c>
+      <c r="O29" s="17"/>
+      <c r="P29" s="59">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C30" s="1">
+        <v>186</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G30" s="4">
+        <v>44627</v>
+      </c>
+      <c r="H30" s="2">
+        <v>8.86</v>
+      </c>
+      <c r="I30" s="2">
+        <v>6.12</v>
+      </c>
+      <c r="J30" s="3">
+        <v>205.90600000000001</v>
+      </c>
+      <c r="K30" s="3">
+        <v>62.749000000000002</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N30" s="1">
+        <v>3</v>
+      </c>
+      <c r="O30" s="60">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="P30" s="60">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C31" s="1">
+        <v>187</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G31" s="4">
+        <v>44627</v>
+      </c>
+      <c r="H31" s="2">
+        <v>8.84</v>
+      </c>
+      <c r="I31" s="2">
+        <v>6.15</v>
+      </c>
+      <c r="J31" s="3">
+        <v>179.81899999999999</v>
+      </c>
+      <c r="K31" s="3">
+        <v>33.052999999999997</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O31" s="17"/>
+    </row>
+    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C32" s="1">
+        <v>188</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="4">
+        <v>44627</v>
+      </c>
+      <c r="H32" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="I32" s="2">
+        <v>5.85</v>
+      </c>
+      <c r="J32" s="3">
+        <v>155.584</v>
+      </c>
+      <c r="K32" s="3">
+        <v>39.085000000000001</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O32" s="17"/>
+    </row>
+    <row r="33" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C33" s="1">
+        <v>189</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="4">
+        <v>44627</v>
+      </c>
+      <c r="H33" s="2">
+        <v>7.03</v>
+      </c>
+      <c r="I33" s="2">
+        <v>5.97</v>
+      </c>
+      <c r="J33" s="3">
+        <v>164.09399999999999</v>
+      </c>
+      <c r="K33" s="3">
+        <v>34.496000000000002</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="O33" s="17"/>
+    </row>
+    <row r="34" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C34" s="1">
+        <v>190</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="4">
+        <v>44627</v>
+      </c>
+      <c r="H34" s="2">
+        <v>7.91</v>
+      </c>
+      <c r="I34" s="2">
+        <v>6.33</v>
+      </c>
+      <c r="J34" s="3">
+        <v>168.95500000000001</v>
+      </c>
+      <c r="K34" s="3">
+        <v>50.731000000000002</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O34" s="17"/>
+    </row>
+    <row r="35" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C35" s="1">
+        <v>191</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="4">
+        <v>44627</v>
+      </c>
+      <c r="H35" s="2">
+        <v>7.27</v>
+      </c>
+      <c r="I35" s="2">
+        <v>6.34</v>
+      </c>
+      <c r="J35" s="3">
+        <v>167.83099999999999</v>
+      </c>
+      <c r="K35" s="3">
+        <v>52.198</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="O35" s="17"/>
+    </row>
+    <row r="36" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C36" s="1">
+        <v>192</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G36" s="4">
+        <v>44627</v>
+      </c>
+      <c r="H36" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I36" s="2">
+        <v>6.06</v>
+      </c>
+      <c r="J36" s="3">
+        <v>202.27600000000001</v>
+      </c>
+      <c r="K36" s="3">
+        <v>58.46</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N36" s="1">
+        <v>3</v>
+      </c>
+      <c r="O36" s="60">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="P36" s="60">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C37" s="1">
+        <v>193</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="4">
+        <v>44627</v>
+      </c>
+      <c r="H37" s="2">
+        <v>7.87</v>
+      </c>
+      <c r="I37" s="2">
+        <v>5.88</v>
+      </c>
+      <c r="J37" s="3">
+        <v>150.333</v>
+      </c>
+      <c r="K37" s="3">
+        <v>45.906999999999996</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N37" s="1">
+        <v>4</v>
+      </c>
+      <c r="O37" s="17">
+        <v>5.2</v>
+      </c>
+      <c r="P37" s="41">
+        <v>1.613</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C38" s="1">
+        <v>194</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="4">
+        <v>44627</v>
+      </c>
+      <c r="H38" s="2">
+        <v>7.85</v>
+      </c>
+      <c r="I38" s="2">
+        <v>5.81</v>
+      </c>
+      <c r="J38" s="3">
+        <v>157.42699999999999</v>
+      </c>
+      <c r="K38" s="3">
+        <v>42.113</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="O38" s="17"/>
+    </row>
+    <row r="39" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C39" s="1">
+        <v>195</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G39" s="4">
+        <v>44627</v>
+      </c>
+      <c r="H39" s="2">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="I39" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="J39" s="3">
+        <v>184.78800000000001</v>
+      </c>
+      <c r="K39" s="3">
+        <v>37.183</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="N39" s="1">
+        <v>4</v>
+      </c>
+      <c r="O39" s="44">
+        <v>1.7</v>
+      </c>
+      <c r="P39" s="42">
+        <v>1.448</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C40" s="1">
+        <v>196</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="G40" s="4">
+        <v>44630</v>
+      </c>
+      <c r="H40" s="5">
+        <v>8.16</v>
+      </c>
+      <c r="I40" s="5">
+        <v>6.7</v>
+      </c>
+      <c r="J40" s="3">
+        <v>201.14400000000001</v>
+      </c>
+      <c r="K40" s="3">
+        <v>48.311</v>
+      </c>
+      <c r="L40" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="O40" s="17"/>
+    </row>
+    <row r="41" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C41" s="1">
+        <v>197</v>
+      </c>
+      <c r="E41" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="G41" s="4">
+        <v>44630</v>
+      </c>
+      <c r="H41" s="5">
+        <v>7.89</v>
+      </c>
+      <c r="I41" s="5">
+        <v>6.48</v>
+      </c>
+      <c r="J41" s="3">
+        <v>195.77099999999999</v>
+      </c>
+      <c r="K41" s="3">
+        <v>51.972000000000001</v>
+      </c>
+      <c r="L41" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="N41" s="1">
+        <v>4</v>
+      </c>
+      <c r="O41" s="17"/>
+      <c r="P41" s="40"/>
+    </row>
+    <row r="42" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C42" s="1">
+        <v>199</v>
+      </c>
+      <c r="E42" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="G42" s="4">
+        <v>44630</v>
+      </c>
+      <c r="H42" s="5">
+        <v>8.51</v>
+      </c>
+      <c r="I42" s="5">
+        <v>6.63</v>
+      </c>
+      <c r="J42" s="3">
+        <v>206.31100000000001</v>
+      </c>
+      <c r="K42" s="3">
+        <v>39.661999999999999</v>
+      </c>
+      <c r="L42" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="N42" s="1">
+        <v>4</v>
+      </c>
+      <c r="O42" s="44">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="P42" s="43">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C43" s="1">
+        <v>203</v>
+      </c>
+      <c r="E43" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="G43" s="4">
+        <v>44630</v>
+      </c>
+      <c r="H43" s="5">
+        <v>8.23</v>
+      </c>
+      <c r="I43" s="5">
+        <v>5.61</v>
+      </c>
+      <c r="J43" s="3">
+        <v>139.06100000000001</v>
+      </c>
+      <c r="K43" s="3">
+        <v>44.36</v>
+      </c>
+      <c r="L43" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="O43" s="17"/>
+    </row>
+    <row r="44" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C44" s="1">
+        <v>204</v>
+      </c>
+      <c r="E44" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="G44" s="4">
+        <v>44630</v>
+      </c>
+      <c r="H44" s="5">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="I44" s="5">
+        <v>5.86</v>
+      </c>
+      <c r="J44" s="3">
+        <v>138.89500000000001</v>
+      </c>
+      <c r="K44" s="3">
+        <v>48.359000000000002</v>
+      </c>
+      <c r="L44" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="N44" s="1">
+        <v>4</v>
+      </c>
+      <c r="O44" s="44">
+        <v>0.7</v>
+      </c>
+      <c r="P44" s="47">
+        <v>5.2130000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C45" s="1">
+        <v>198</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="G45" s="4">
+        <v>44630</v>
+      </c>
+      <c r="H45" s="5">
+        <v>9.27</v>
+      </c>
+      <c r="I45" s="5">
+        <v>5.03</v>
+      </c>
+      <c r="J45" s="3">
+        <v>158.773</v>
+      </c>
+      <c r="K45" s="3">
+        <v>36.716999999999999</v>
+      </c>
+      <c r="L45" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="O45" s="17"/>
+    </row>
+    <row r="46" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C46" s="1">
+        <v>202</v>
+      </c>
+      <c r="E46" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="G46" s="4">
+        <v>44630</v>
+      </c>
+      <c r="H46" s="5">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I46" s="5">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>149.77099999999999</v>
+      </c>
+      <c r="K46" s="3">
+        <v>20.187000000000001</v>
+      </c>
+      <c r="L46" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="N46" s="1">
+        <v>4</v>
+      </c>
+      <c r="O46" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P46" s="46">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C47" s="1">
+        <v>206</v>
+      </c>
+      <c r="E47" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="G47" s="4">
+        <v>44630</v>
+      </c>
+      <c r="H47" s="5">
+        <v>8.82</v>
+      </c>
+      <c r="I47" s="5">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="J47" s="3">
+        <v>144.44300000000001</v>
+      </c>
+      <c r="K47" s="3">
+        <v>41.558</v>
+      </c>
+      <c r="L47" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="N47" s="1">
+        <v>4</v>
+      </c>
+      <c r="O47" s="44">
+        <v>4.3</v>
+      </c>
+      <c r="P47" s="48">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C48" s="1">
+        <v>201</v>
+      </c>
+      <c r="E48" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="G48" s="4">
+        <v>44630</v>
+      </c>
+      <c r="H48" s="5">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="I48" s="5">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="J48" s="3">
+        <v>154.93799999999999</v>
+      </c>
+      <c r="K48" s="3">
+        <v>40.356999999999999</v>
+      </c>
+      <c r="L48" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="O48" s="17"/>
+    </row>
+    <row r="49" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C49" s="1">
+        <v>205</v>
+      </c>
+      <c r="E49" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="G49" s="4">
+        <v>44630</v>
+      </c>
+      <c r="H49" s="5">
+        <v>7.86</v>
+      </c>
+      <c r="I49" s="5">
+        <v>5.79</v>
+      </c>
+      <c r="J49" s="3">
+        <v>164.99799999999999</v>
+      </c>
+      <c r="K49" s="3">
+        <v>42.624000000000002</v>
+      </c>
+      <c r="L49" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="O49" s="17"/>
+    </row>
+    <row r="50" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C50" s="1">
+        <v>200</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="G50" s="4">
+        <v>44630</v>
+      </c>
+      <c r="H50" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="I50" s="5">
+        <v>5.51</v>
+      </c>
+      <c r="J50" s="3">
+        <v>140.89099999999999</v>
+      </c>
+      <c r="K50" s="3">
+        <v>46.851999999999997</v>
+      </c>
+      <c r="L50" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="N50" s="1">
+        <v>4</v>
+      </c>
+      <c r="O50" s="17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P50" s="45">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C51" s="1">
+        <v>214</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="G51" s="4">
+        <v>44630</v>
+      </c>
+      <c r="H51" s="5">
+        <v>7.92</v>
+      </c>
+      <c r="I51" s="5">
+        <v>5.65</v>
+      </c>
+      <c r="J51" s="3">
+        <v>156.88499999999999</v>
+      </c>
+      <c r="K51" s="3">
+        <v>26.08</v>
+      </c>
+      <c r="L51" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="O51" s="17"/>
+    </row>
+    <row r="52" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C52" s="1">
+        <v>209</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G52" s="4">
+        <v>44630</v>
+      </c>
+      <c r="H52" s="5">
+        <v>7.7</v>
+      </c>
+      <c r="I52" s="5">
+        <v>6.78</v>
+      </c>
+      <c r="J52" s="3">
+        <v>208.685</v>
+      </c>
+      <c r="K52" s="3">
+        <v>35.954999999999998</v>
+      </c>
+      <c r="L52" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="N52" s="1">
+        <v>4</v>
+      </c>
+      <c r="O52" s="44">
+        <v>7.7314999999999995E-2</v>
+      </c>
+      <c r="P52" s="49">
+        <v>1.3440000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C53" s="1">
+        <v>208</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="4">
+        <v>44630</v>
+      </c>
+      <c r="H53" s="5">
+        <v>7.45</v>
+      </c>
+      <c r="I53" s="5">
+        <v>6.15</v>
+      </c>
+      <c r="J53" s="3">
+        <v>192.37100000000001</v>
+      </c>
+      <c r="K53" s="3">
+        <v>54.018000000000001</v>
+      </c>
+      <c r="L53" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="O53" s="17"/>
+    </row>
+    <row r="54" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C54" s="1">
+        <v>207</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54" s="4">
+        <v>44630</v>
+      </c>
+      <c r="H54" s="5">
+        <v>7.38</v>
+      </c>
+      <c r="I54" s="5">
+        <v>5.95</v>
+      </c>
+      <c r="J54" s="3">
+        <v>184.55699999999999</v>
+      </c>
+      <c r="K54" s="3">
+        <v>58.792000000000002</v>
+      </c>
+      <c r="L54" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="O54" s="17"/>
+    </row>
+    <row r="55" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C55" s="1">
+        <v>210</v>
+      </c>
+      <c r="E55" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="F55" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" s="4">
+        <v>44630</v>
+      </c>
+      <c r="H55" s="5">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="I55" s="5">
+        <v>6.4</v>
+      </c>
+      <c r="J55" s="3">
+        <v>193.83099999999999</v>
+      </c>
+      <c r="K55" s="3">
+        <v>55.942</v>
+      </c>
+      <c r="L55" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="N55" s="1">
+        <v>4</v>
+      </c>
+      <c r="O55" s="17"/>
+      <c r="P55" s="40"/>
+    </row>
+    <row r="56" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C56" s="1">
+        <v>211</v>
+      </c>
+      <c r="E56" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56" s="4">
+        <v>44630</v>
+      </c>
+      <c r="H56" s="5">
+        <v>7.67</v>
+      </c>
+      <c r="I56" s="5">
+        <v>6.32</v>
+      </c>
+      <c r="J56" s="3">
+        <v>185.49</v>
+      </c>
+      <c r="K56" s="3">
+        <v>42.185000000000002</v>
+      </c>
+      <c r="L56" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="N56" s="1">
+        <v>4</v>
+      </c>
+      <c r="O56" s="51">
+        <v>63.2</v>
+      </c>
+      <c r="P56" s="50">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C57" s="1">
+        <v>213</v>
+      </c>
+      <c r="E57" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="F57" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G57" s="4">
+        <v>44630</v>
+      </c>
+      <c r="H57" s="5">
+        <v>7.22</v>
+      </c>
+      <c r="I57" s="5">
+        <v>6.22</v>
+      </c>
+      <c r="J57" s="3">
+        <v>168.76599999999999</v>
+      </c>
+      <c r="K57" s="3">
+        <v>33.747999999999998</v>
+      </c>
+      <c r="L57" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="N57" s="1">
+        <v>4</v>
+      </c>
+      <c r="O57" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="P57" s="52">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C58" s="1">
+        <v>216</v>
+      </c>
+      <c r="E58" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G58" s="4">
+        <v>44630</v>
+      </c>
+      <c r="H58" s="5">
+        <v>7.19</v>
+      </c>
+      <c r="I58" s="5">
+        <v>6.28</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3">
+        <v>24.852</v>
+      </c>
+      <c r="L58" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="O58" s="17"/>
+    </row>
+    <row r="59" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C59" s="1">
+        <v>212</v>
+      </c>
+      <c r="E59" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="F59" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G59" s="4">
+        <v>44630</v>
+      </c>
+      <c r="H59" s="5">
+        <v>7.27</v>
+      </c>
+      <c r="I59" s="5">
+        <v>6.05</v>
+      </c>
+      <c r="J59" s="3">
+        <v>150.68700000000001</v>
+      </c>
+      <c r="K59" s="3">
+        <v>46.987000000000002</v>
+      </c>
+      <c r="L59" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="O59" s="17"/>
+      <c r="P59" s="40"/>
+    </row>
+    <row r="60" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C60" s="1">
+        <v>217</v>
+      </c>
+      <c r="E60" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="F60" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G60" s="4">
+        <v>44630</v>
+      </c>
+      <c r="H60" s="5">
+        <v>6.72</v>
+      </c>
+      <c r="I60" s="5">
+        <v>6.06</v>
+      </c>
+      <c r="J60" s="3">
+        <v>131.72399999999999</v>
+      </c>
+      <c r="K60" s="3">
+        <v>36.628</v>
+      </c>
+      <c r="L60" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="N60" s="1">
+        <v>4</v>
+      </c>
+      <c r="O60" s="54">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="P60" s="53">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C61" s="1">
+        <v>215</v>
+      </c>
+      <c r="E61" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="F61" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G61" s="4">
+        <v>44630</v>
+      </c>
+      <c r="H61" s="5">
+        <v>7.22</v>
+      </c>
+      <c r="I61" s="5">
+        <v>5.79</v>
+      </c>
+      <c r="J61" s="3">
+        <v>132.72200000000001</v>
+      </c>
+      <c r="K61" s="3">
+        <v>27.574000000000002</v>
+      </c>
+      <c r="L61" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="O61" s="17"/>
+    </row>
+    <row r="62" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C62" s="1">
+        <v>223</v>
+      </c>
+      <c r="E62" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="F62" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G62" s="4">
+        <v>44634</v>
+      </c>
+      <c r="H62" s="5">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="I62" s="5">
+        <v>6.45</v>
+      </c>
+      <c r="J62" s="3">
+        <v>205.85599999999999</v>
+      </c>
+      <c r="K62" s="3">
+        <v>56.652000000000001</v>
+      </c>
+      <c r="L62" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="N62" s="1">
+        <v>4</v>
+      </c>
+      <c r="O62" s="17"/>
+      <c r="P62" s="40"/>
+    </row>
+    <row r="63" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C63" s="1">
+        <v>219</v>
+      </c>
+      <c r="E63" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="F63" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G63" s="4">
+        <v>44634</v>
+      </c>
+      <c r="H63" s="5">
+        <v>8.02</v>
+      </c>
+      <c r="I63" s="5">
+        <v>6.51</v>
+      </c>
+      <c r="J63" s="3">
+        <v>199.11199999999999</v>
+      </c>
+      <c r="K63" s="3">
+        <v>45.816000000000003</v>
+      </c>
+      <c r="L63" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="O63" s="17"/>
+      <c r="P63" s="40"/>
+    </row>
+    <row r="64" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C64" s="1">
+        <v>221</v>
+      </c>
+      <c r="E64" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="F64" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G64" s="4">
+        <v>44634</v>
+      </c>
+      <c r="H64" s="5">
+        <v>9.17</v>
+      </c>
+      <c r="I64" s="5">
+        <v>6.44</v>
+      </c>
+      <c r="J64" s="3">
+        <v>223.30699999999999</v>
+      </c>
+      <c r="K64" s="3">
+        <v>45.722999999999999</v>
+      </c>
+      <c r="L64" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="N64" s="1">
+        <v>4</v>
+      </c>
+      <c r="O64" s="56">
+        <v>3.9</v>
+      </c>
+      <c r="P64" s="55">
+        <v>7.3659999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C65" s="1">
+        <v>222</v>
+      </c>
+      <c r="E65" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="F65" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G65" s="4">
+        <v>44634</v>
+      </c>
+      <c r="H65" s="5">
+        <v>8.57</v>
+      </c>
+      <c r="I65" s="5">
+        <v>6.64</v>
+      </c>
+      <c r="J65" s="3">
+        <v>190.559</v>
+      </c>
+      <c r="K65" s="3">
+        <v>49.451000000000001</v>
+      </c>
+      <c r="L65" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="O65" s="17"/>
+    </row>
+    <row r="66" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C66" s="1">
+        <v>218</v>
+      </c>
+      <c r="E66" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="F66" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G66" s="4">
+        <v>44634</v>
+      </c>
+      <c r="H66" s="5">
+        <v>7.24</v>
+      </c>
+      <c r="I66" s="5">
+        <v>5.89</v>
+      </c>
+      <c r="J66" s="3">
+        <v>138.72499999999999</v>
+      </c>
+      <c r="K66" s="3">
+        <v>34.984000000000002</v>
+      </c>
+      <c r="L66" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="N66" s="1">
+        <v>4</v>
+      </c>
+      <c r="O66" s="17"/>
+      <c r="P66" s="40"/>
+    </row>
+    <row r="67" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C67" s="1">
+        <v>226</v>
+      </c>
+      <c r="E67" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="F67" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G67" s="4">
+        <v>44634</v>
+      </c>
+      <c r="H67" s="5">
+        <v>8.02</v>
+      </c>
+      <c r="I67" s="5">
+        <v>6.55</v>
+      </c>
+      <c r="J67" s="3">
+        <v>190.452</v>
+      </c>
+      <c r="K67" s="3">
+        <v>50.075000000000003</v>
+      </c>
+      <c r="L67" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="O67" s="17"/>
+    </row>
+    <row r="68" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C68" s="1">
+        <v>230</v>
+      </c>
+      <c r="E68" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="F68" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G68" s="4">
+        <v>44634</v>
+      </c>
+      <c r="H68" s="5">
+        <v>7.82</v>
+      </c>
+      <c r="I68" s="5">
+        <v>6.49</v>
+      </c>
+      <c r="J68" s="3">
+        <v>156.12</v>
+      </c>
+      <c r="K68" s="3">
+        <v>43.176000000000002</v>
+      </c>
+      <c r="L68" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="O68" s="17"/>
+    </row>
+    <row r="69" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C69" s="1">
+        <v>225</v>
+      </c>
+      <c r="E69" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="F69" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G69" s="4">
+        <v>44634</v>
+      </c>
+      <c r="H69" s="5">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="I69" s="5">
+        <v>6.07</v>
+      </c>
+      <c r="J69" s="3">
+        <v>179.459</v>
+      </c>
+      <c r="K69" s="3">
+        <v>51.616999999999997</v>
+      </c>
+      <c r="L69" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="O69" s="17"/>
+    </row>
+    <row r="70" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C70" s="1">
+        <v>224</v>
+      </c>
+      <c r="E70" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="F70" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G70" s="4">
+        <v>44634</v>
+      </c>
+      <c r="H70" s="5">
+        <v>7.62</v>
+      </c>
+      <c r="I70" s="5">
+        <v>6.77</v>
+      </c>
+      <c r="J70" s="3">
+        <v>181.875</v>
+      </c>
+      <c r="K70" s="3">
+        <v>55.677999999999997</v>
+      </c>
+      <c r="L70" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="O70" s="17"/>
+    </row>
+    <row r="71" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C71" s="1">
+        <v>220</v>
+      </c>
+      <c r="E71" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="F71" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G71" s="4">
+        <v>44634</v>
+      </c>
+      <c r="H71" s="5">
+        <v>7.41</v>
+      </c>
+      <c r="I71" s="5">
+        <v>6.63</v>
+      </c>
+      <c r="J71" s="3">
+        <v>184.114</v>
+      </c>
+      <c r="K71" s="3">
+        <v>31.303000000000001</v>
+      </c>
+      <c r="L71" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="O71" s="17"/>
+    </row>
+    <row r="72" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C72" s="1">
+        <v>231</v>
+      </c>
+      <c r="E72" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="F72" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G72" s="4">
+        <v>44634</v>
+      </c>
+      <c r="H72" s="5">
+        <v>7.13</v>
+      </c>
+      <c r="I72" s="5">
+        <v>5.99</v>
+      </c>
+      <c r="J72" s="3">
+        <v>158.57</v>
+      </c>
+      <c r="K72" s="3">
+        <v>43.646000000000001</v>
+      </c>
+      <c r="L72" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="O72" s="17"/>
+    </row>
+    <row r="73" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C73" s="1">
+        <v>227</v>
+      </c>
+      <c r="E73" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="F73" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G73" s="4">
+        <v>44634</v>
+      </c>
+      <c r="H73" s="5">
+        <v>8.01</v>
+      </c>
+      <c r="I73" s="5">
+        <v>5.68</v>
+      </c>
+      <c r="J73" s="3">
+        <v>141.50299999999999</v>
+      </c>
+      <c r="K73" s="3">
+        <v>36.712000000000003</v>
+      </c>
+      <c r="L73" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="O73" s="17"/>
+    </row>
+    <row r="74" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C74" s="1">
+        <v>233</v>
+      </c>
+      <c r="E74" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="F74" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G74" s="4">
+        <v>44634</v>
+      </c>
+      <c r="H74" s="5">
+        <v>7.68</v>
+      </c>
+      <c r="I74" s="5">
+        <v>5.51</v>
+      </c>
+      <c r="J74" s="3">
+        <v>148.071</v>
+      </c>
+      <c r="K74" s="3">
+        <v>30.649000000000001</v>
+      </c>
+      <c r="L74" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="O74" s="17"/>
+    </row>
+    <row r="75" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C75" s="1">
+        <v>232</v>
+      </c>
+      <c r="E75" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="F75" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G75" s="4">
+        <v>44634</v>
+      </c>
+      <c r="H75" s="5">
+        <v>7.35</v>
+      </c>
+      <c r="I75" s="5">
+        <v>5.65</v>
+      </c>
+      <c r="J75" s="3">
+        <v>136.58799999999999</v>
+      </c>
+      <c r="K75" s="3">
+        <v>37.301000000000002</v>
+      </c>
+      <c r="L75" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="O75" s="17"/>
+    </row>
+    <row r="76" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C76" s="1">
+        <v>229</v>
+      </c>
+      <c r="E76" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="F76" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G76" s="4">
+        <v>44634</v>
+      </c>
+      <c r="H76" s="5">
+        <v>7.37</v>
+      </c>
+      <c r="I76" s="5">
+        <v>5.82</v>
+      </c>
+      <c r="J76" s="3">
+        <v>158.29499999999999</v>
+      </c>
+      <c r="K76" s="3">
+        <v>24.504999999999999</v>
+      </c>
+      <c r="L76" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="O76" s="17"/>
+    </row>
+    <row r="77" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C77" s="1">
+        <v>228</v>
+      </c>
+      <c r="E77" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="F77" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G77" s="4">
+        <v>44634</v>
+      </c>
+      <c r="H77" s="5">
+        <v>7.84</v>
+      </c>
+      <c r="I77" s="5">
+        <v>5.37</v>
+      </c>
+      <c r="J77" s="3">
+        <v>140.03299999999999</v>
+      </c>
+      <c r="K77" s="3">
+        <v>52.7</v>
+      </c>
+      <c r="L77" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="O77" s="17"/>
+    </row>
+    <row r="78" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C78" s="1">
+        <v>234</v>
+      </c>
+      <c r="E78" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="F78" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="G78" s="6">
+        <v>44635</v>
+      </c>
+      <c r="H78" s="36">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="I78" s="36">
+        <v>5.29</v>
+      </c>
+      <c r="J78" s="3">
+        <v>153.405</v>
+      </c>
+      <c r="K78" s="3">
+        <v>27.149000000000001</v>
+      </c>
+      <c r="L78" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="O78" s="17"/>
+    </row>
+    <row r="79" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C79" s="1">
+        <v>240</v>
+      </c>
+      <c r="E79" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="F79" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="G79" s="6">
+        <v>44635</v>
+      </c>
+      <c r="H79" s="36">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="I79" s="36">
+        <v>5.39</v>
+      </c>
+      <c r="J79" s="3">
+        <v>173.52699999999999</v>
+      </c>
+      <c r="K79" s="3">
+        <v>28.065000000000001</v>
+      </c>
+      <c r="L79" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="O79" s="17"/>
+    </row>
+    <row r="80" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C80" s="1">
+        <v>242</v>
+      </c>
+      <c r="E80" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="F80" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="G80" s="6">
+        <v>44635</v>
+      </c>
+      <c r="H80" s="36">
+        <v>9.17</v>
+      </c>
+      <c r="I80" s="36">
+        <v>5.6</v>
+      </c>
+      <c r="J80" s="3">
+        <v>193.60499999999999</v>
+      </c>
+      <c r="K80" s="3">
+        <v>60.475000000000001</v>
+      </c>
+      <c r="L80" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="O80" s="17"/>
+    </row>
+    <row r="81" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C81" s="1">
+        <v>236</v>
+      </c>
+      <c r="E81" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="F81" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="G81" s="6">
+        <v>44635</v>
+      </c>
+      <c r="H81" s="36">
+        <v>8.48</v>
+      </c>
+      <c r="I81" s="36">
+        <v>5.33</v>
+      </c>
+      <c r="J81" s="3">
+        <v>147.34899999999999</v>
+      </c>
+      <c r="K81" s="3">
+        <v>44.259</v>
+      </c>
+      <c r="L81" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="O81" s="17"/>
+    </row>
+    <row r="82" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C82" s="1">
+        <v>237</v>
+      </c>
+      <c r="E82" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="F82" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="G82" s="6">
+        <v>44635</v>
+      </c>
+      <c r="H82" s="36">
+        <v>7.81</v>
+      </c>
+      <c r="I82" s="36">
+        <v>5.7</v>
+      </c>
+      <c r="J82" s="3">
+        <v>171.81800000000001</v>
+      </c>
+      <c r="K82" s="3">
+        <v>26.390999999999998</v>
+      </c>
+      <c r="L82" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="O82" s="17"/>
+    </row>
+    <row r="83" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C83" s="1">
+        <v>241</v>
+      </c>
+      <c r="E83" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="F83" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="G83" s="6">
+        <v>44635</v>
+      </c>
+      <c r="H83" s="36">
+        <v>8.68</v>
+      </c>
+      <c r="I83" s="36">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="J83" s="3">
+        <v>114.104</v>
+      </c>
+      <c r="K83" s="3">
+        <v>37.021999999999998</v>
+      </c>
+      <c r="L83" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="O83" s="17"/>
+    </row>
+    <row r="84" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C84" s="1">
+        <v>243</v>
+      </c>
+      <c r="E84" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="F84" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="G84" s="6">
+        <v>44635</v>
+      </c>
+      <c r="H84" s="36">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="I84" s="36">
+        <v>5.59</v>
+      </c>
+      <c r="J84" s="3">
+        <v>167.75299999999999</v>
+      </c>
+      <c r="K84" s="3">
+        <v>42.191000000000003</v>
+      </c>
+      <c r="L84" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="O84" s="17"/>
+    </row>
+    <row r="85" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C85" s="1">
+        <v>244</v>
+      </c>
+      <c r="E85" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="F85" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="G85" s="6">
+        <v>44635</v>
+      </c>
+      <c r="H85" s="36">
+        <v>8.32</v>
+      </c>
+      <c r="I85" s="36">
+        <v>5.71</v>
+      </c>
+      <c r="J85" s="3">
+        <v>155.46899999999999</v>
+      </c>
+      <c r="K85" s="3">
+        <v>52.405000000000001</v>
+      </c>
+      <c r="L85" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="O85" s="17"/>
+    </row>
+    <row r="86" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C86" s="1">
+        <v>235</v>
+      </c>
+      <c r="E86" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="F86" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="G86" s="6">
+        <v>44635</v>
+      </c>
+      <c r="H86" s="36">
+        <v>8.84</v>
+      </c>
+      <c r="I86" s="36">
+        <v>5.31</v>
+      </c>
+      <c r="J86" s="3">
+        <v>168.25299999999999</v>
+      </c>
+      <c r="K86" s="3">
+        <v>32.387</v>
+      </c>
+      <c r="L86" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="O86" s="17"/>
+    </row>
+    <row r="87" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C87" s="1">
+        <v>239</v>
+      </c>
+      <c r="E87" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="F87" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="G87" s="6">
+        <v>44635</v>
+      </c>
+      <c r="H87" s="36">
+        <v>8.67</v>
+      </c>
+      <c r="I87" s="36">
+        <v>5.84</v>
+      </c>
+      <c r="J87" s="3">
+        <v>143.92699999999999</v>
+      </c>
+      <c r="K87" s="3">
+        <v>31.957000000000001</v>
+      </c>
+      <c r="L87" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="O87" s="17"/>
+    </row>
+    <row r="88" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C88" s="1">
+        <v>238</v>
+      </c>
+      <c r="E88" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="F88" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="G88" s="6">
+        <v>44635</v>
+      </c>
+      <c r="H88" s="36">
+        <v>9.11</v>
+      </c>
+      <c r="I88" s="36">
+        <v>5.64</v>
+      </c>
+      <c r="J88" s="3">
+        <v>164.88900000000001</v>
+      </c>
+      <c r="K88" s="3">
+        <v>32.850999999999999</v>
+      </c>
+      <c r="L88" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="O88" s="17"/>
+    </row>
+    <row r="89" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C89" s="1">
+        <v>245</v>
+      </c>
+      <c r="E89" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="F89" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="G89" s="6">
+        <v>44635</v>
+      </c>
+      <c r="H89" s="36">
+        <v>7.79</v>
+      </c>
+      <c r="I89" s="36">
+        <v>5.29</v>
+      </c>
+      <c r="J89" s="3">
+        <v>134.97999999999999</v>
+      </c>
+      <c r="K89" s="3">
+        <v>27.664000000000001</v>
+      </c>
+      <c r="L89" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="O89" s="17"/>
+    </row>
+    <row r="90" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C90" s="1">
+        <v>246</v>
+      </c>
+      <c r="E90" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="F90" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="G90" s="6">
+        <v>44635</v>
+      </c>
+      <c r="H90" s="36">
+        <v>8.07</v>
+      </c>
+      <c r="I90" s="36">
+        <v>5.27</v>
+      </c>
+      <c r="J90" s="3">
+        <v>141.673</v>
+      </c>
+      <c r="K90" s="3">
+        <v>30.792000000000002</v>
+      </c>
+      <c r="L90" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="O90" s="17"/>
+    </row>
+    <row r="91" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C91" s="1">
+        <v>250</v>
+      </c>
+      <c r="E91" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="F91" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="G91" s="6">
+        <v>44635</v>
+      </c>
+      <c r="H91" s="36">
+        <v>7.21</v>
+      </c>
+      <c r="I91" s="36">
+        <v>5.35</v>
+      </c>
+      <c r="J91" s="3">
+        <v>141.49</v>
+      </c>
+      <c r="K91" s="3">
+        <v>34.536000000000001</v>
+      </c>
+      <c r="L91" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="O91" s="17"/>
+    </row>
+    <row r="92" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C92" s="1">
+        <v>252</v>
+      </c>
+      <c r="E92" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="F92" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="G92" s="6">
+        <v>44635</v>
+      </c>
+      <c r="H92" s="36">
+        <v>7.39</v>
+      </c>
+      <c r="I92" s="36">
+        <v>5.03</v>
+      </c>
+      <c r="J92" s="3">
+        <v>138.517</v>
+      </c>
+      <c r="K92" s="3">
+        <v>29.849</v>
+      </c>
+      <c r="L92" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="O92" s="17"/>
+    </row>
+    <row r="93" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C93" s="1">
+        <v>247</v>
+      </c>
+      <c r="E93" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="F93" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="G93" s="6">
+        <v>44635</v>
+      </c>
+      <c r="H93" s="36">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="I93" s="36">
+        <v>5.6</v>
+      </c>
+      <c r="J93" s="3">
+        <v>158.22900000000001</v>
+      </c>
+      <c r="K93" s="3">
+        <v>50.917000000000002</v>
+      </c>
+      <c r="L93" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="O93" s="17"/>
+    </row>
+    <row r="94" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C94" s="1">
+        <v>249</v>
+      </c>
+      <c r="E94" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="F94" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="G94" s="6">
+        <v>44635</v>
+      </c>
+      <c r="H94" s="36">
+        <v>8.18</v>
+      </c>
+      <c r="I94" s="36">
+        <v>5.67</v>
+      </c>
+      <c r="J94" s="3">
+        <v>169.33500000000001</v>
+      </c>
+      <c r="K94" s="3">
+        <v>40.234000000000002</v>
+      </c>
+      <c r="L94" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="O94" s="17"/>
+    </row>
+    <row r="95" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C95" s="1">
+        <v>253</v>
+      </c>
+      <c r="E95" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="F95" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="G95" s="6">
+        <v>44635</v>
+      </c>
+      <c r="H95" s="36">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="I95" s="36">
+        <v>6.34</v>
+      </c>
+      <c r="J95" s="3">
+        <v>182.18100000000001</v>
+      </c>
+      <c r="K95" s="3">
+        <v>53.642000000000003</v>
+      </c>
+      <c r="L95" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="O95" s="17"/>
+    </row>
+    <row r="96" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C96" s="1">
+        <v>251</v>
+      </c>
+      <c r="E96" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="F96" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="G96" s="6">
+        <v>44635</v>
+      </c>
+      <c r="H96" s="36">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="I96" s="36">
+        <v>5.59</v>
+      </c>
+      <c r="J96" s="3">
+        <v>196.416</v>
+      </c>
+      <c r="K96" s="3">
+        <v>37.588999999999999</v>
+      </c>
+      <c r="L96" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="O96" s="17"/>
+    </row>
+    <row r="97" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C97" s="1">
+        <v>255</v>
+      </c>
+      <c r="E97" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="F97" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="G97" s="6">
+        <v>44635</v>
+      </c>
+      <c r="H97" s="36">
+        <v>7.93</v>
+      </c>
+      <c r="I97" s="36">
+        <v>5.63</v>
+      </c>
+      <c r="J97" s="3">
+        <v>156.542</v>
+      </c>
+      <c r="K97" s="3">
+        <v>37.185000000000002</v>
+      </c>
+      <c r="L97" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="O97" s="17"/>
+    </row>
+    <row r="98" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C98" s="1">
+        <v>254</v>
+      </c>
+      <c r="E98" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="F98" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="G98" s="6">
+        <v>44635</v>
+      </c>
+      <c r="H98" s="36">
+        <v>7.8</v>
+      </c>
+      <c r="I98" s="36">
+        <v>5.48</v>
+      </c>
+      <c r="J98" s="3">
+        <v>158.68700000000001</v>
+      </c>
+      <c r="K98" s="3">
+        <v>33.067</v>
+      </c>
+      <c r="L98" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="O98" s="17"/>
+    </row>
+    <row r="99" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C99" s="1">
+        <v>248</v>
+      </c>
+      <c r="E99" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="F99" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="G99" s="6">
+        <v>44635</v>
+      </c>
+      <c r="H99" s="36">
+        <v>8.33</v>
+      </c>
+      <c r="I99" s="36">
+        <v>5.36</v>
+      </c>
+      <c r="J99" s="3">
+        <v>157.02000000000001</v>
+      </c>
+      <c r="K99" s="3">
+        <v>56.764000000000003</v>
+      </c>
+      <c r="L99" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="O99" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332874F0-8884-4AEA-B3CF-966A6F04E564}">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="X55" sqref="X55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10110,13 +13897,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDD0115-DA01-49C1-8B6F-D4677B704F3A}">
   <dimension ref="A1:BN320"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1:U2"/>
+      <selection pane="bottomLeft" activeCell="Q6" sqref="Q5:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16522,7 +20309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCEBB37-5C4F-4703-9E0B-1B3BC065394F}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -16652,7 +20439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC344CC-6099-434C-9A36-B42E1E541E65}">
   <dimension ref="A1:I6"/>
   <sheetViews>
